--- a/model/results/ELEC/v_abated.xlsx
+++ b/model/results/ELEC/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>1526880.74</v>
+        <v>1309385</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>1528407.62074</v>
+        <v>1310694.385</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>1529936.02836074</v>
+        <v>1312005.079385</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>1531465.9643891</v>
+        <v>1313317.084464385</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1752361.959203225</v>
+        <v>934593.0449083864</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1532997.430353489</v>
+        <v>1314630.401548849</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3892445.771566668</v>
+        <v>4557385.392036009</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1754114.321162427</v>
+        <v>935527.6379532946</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1534530.427783842</v>
+        <v>1315945.031950398</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3896338.217338234</v>
+        <v>4561942.777428044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1755868.43548359</v>
+        <v>936463.165591248</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1536064.958211626</v>
+        <v>1317260.976982348</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3900234.555555572</v>
+        <v>4566504.720205472</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1757624.303919073</v>
+        <v>937399.6287568391</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>1537601.023169838</v>
+        <v>1318578.23795933</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3904134.790111127</v>
+        <v>4571071.224925676</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1759381.928222992</v>
+        <v>938337.0283855959</v>
       </c>
       <c r="M10" t="n">
-        <v>586460.6427409974</v>
+        <v>234584.2570963989</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>1539138.624193007</v>
+        <v>1319896.816197289</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2042181.403755637</v>
+        <v>2921186.371174042</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3908038.924901237</v>
+        <v>4575642.296150601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1761141.310151215</v>
+        <v>2113369.572181458</v>
       </c>
       <c r="M11" t="n">
-        <v>587047.1033837381</v>
+        <v>234818.8413534952</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>1540677.7628172</v>
+        <v>1321216.713013487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2044223.585159393</v>
+        <v>2924107.557545216</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3911946.963826139</v>
+        <v>4580217.938446753</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1325,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1762902.451461366</v>
+        <v>2115482.941753639</v>
       </c>
       <c r="M12" t="n">
-        <v>587634.1504871219</v>
+        <v>235053.6601948487</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4584798.156385196</v>
+        <v>4584798.156385197</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1399,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1764665.353912827</v>
+        <v>2117598.424695393</v>
       </c>
       <c r="M13" t="n">
-        <v>588221.7846376088</v>
+        <v>235288.7138550435</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4589382.954541584</v>
+        <v>4589382.954541583</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1766430.01926674</v>
+        <v>2119716.023120088</v>
       </c>
       <c r="M14" t="n">
-        <v>588810.0064222465</v>
+        <v>235524.0025688985</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>1325184.328123882</v>
+        <v>1325184.328123883</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4593972.337496125</v>
+        <v>4593972.337496124</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1768196.449286006</v>
+        <v>2121835.739143208</v>
       </c>
       <c r="M15" t="n">
-        <v>589398.8164286686</v>
+        <v>235759.5265714674</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4598566.309833621</v>
+        <v>4598566.30983362</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1769964.645735292</v>
+        <v>2123957.574882351</v>
       </c>
       <c r="M16" t="n">
-        <v>589988.2152450972</v>
+        <v>235995.2860980388</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1771734.610381027</v>
+        <v>2126081.532457232</v>
       </c>
       <c r="M17" t="n">
-        <v>590578.2034603423</v>
+        <v>236231.2813841369</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1773506.344991408</v>
+        <v>2128207.61398969</v>
       </c>
       <c r="M18" t="n">
-        <v>591168.7816638025</v>
+        <v>236467.512665521</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1775279.851336399</v>
+        <v>2130335.821603679</v>
       </c>
       <c r="M19" t="n">
-        <v>591759.9504454662</v>
+        <v>236703.9801781864</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1777055.131187736</v>
+        <v>2132466.157425283</v>
       </c>
       <c r="M20" t="n">
-        <v>592351.7103959117</v>
+        <v>236940.6841583646</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1778832.186318923</v>
+        <v>2134598.623582708</v>
       </c>
       <c r="M21" t="n">
-        <v>592944.0621063076</v>
+        <v>237177.624842523</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
